--- a/Marks.xlsx
+++ b/Marks.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mahdi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mahdi\Desktop\D2L-MUN-Gradre-Filler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02A4065-89D7-43D0-A4D0-9912E5AA998A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A1CFEB-6026-4990-8FB7-B741D50B599F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,18 +27,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>Olutayo</t>
-  </si>
-  <si>
-    <t>Zahra</t>
-  </si>
-  <si>
     <t>marks</t>
   </si>
   <si>
-    <t>names</t>
-  </si>
-  <si>
     <t>comments</t>
   </si>
   <si>
@@ -49,6 +40,15 @@
   </si>
   <si>
     <t>student ids</t>
+  </si>
+  <si>
+    <t>fullnames</t>
+  </si>
+  <si>
+    <t>Bukhari Ahmed</t>
+  </si>
+  <si>
+    <t>Amro Badavi</t>
   </si>
 </sst>
 </file>
@@ -369,38 +369,39 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="15.21875" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>11.24</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>202293111</v>
@@ -408,13 +409,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>8.1300000000000008</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D3">
         <v>202190451</v>

--- a/Marks.xlsx
+++ b/Marks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mahdi\Desktop\D2L-MUN-Gradre-Filler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A1CFEB-6026-4990-8FB7-B741D50B599F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13796F20-4A64-4ABD-86B0-5C18E6950781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4128" yWindow="2892" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>marks</t>
   </si>
@@ -33,22 +33,22 @@
     <t>comments</t>
   </si>
   <si>
-    <t>I:3,T:1,D:3,C:2</t>
-  </si>
-  <si>
-    <t>I:3,T:1.5,D:1.5,C:0.5</t>
-  </si>
-  <si>
     <t>student ids</t>
   </si>
   <si>
     <t>fullnames</t>
   </si>
   <si>
-    <t>Bukhari Ahmed</t>
-  </si>
-  <si>
-    <t>Amro Badavi</t>
+    <t>XXX</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>X Y</t>
   </si>
 </sst>
 </file>
@@ -369,7 +369,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -381,7 +381,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -390,35 +390,35 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
-        <v>80</v>
-      </c>
       <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>202293111</v>
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
-        <v>85</v>
+      <c r="B3" t="s">
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>202190451</v>
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
